--- a/InputFiles/ICDC/TC01_Canine_Filter_Study-COTB.xlsx
+++ b/InputFiles/ICDC/TC01_Canine_Filter_Study-COTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593371C-4C84-4A9B-923E-0A22FD639F00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E96D2-EB5D-4BCA-9732-B0A1B60B6059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>WebExcel</t>
   </si>
@@ -42,18 +42,9 @@
     <t>dbExcel</t>
   </si>
   <si>
-    <t>TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_Canine_Filter_Study-COTB_WebData.xlsx</t>
-  </si>
-  <si>
     <t>StatQuery</t>
   </si>
   <si>
-    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE s.clinical_study_designation IN ['COTC007B']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
-  </si>
-  <si>
     <t>TabName</t>
   </si>
   <si>
@@ -64,23 +55,6 @@
   </si>
   <si>
     <t>FilesTab</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE s.clinical_study_designation IN ['COTC007B']
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
@@ -99,23 +73,70 @@
         coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
   <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+WHERE s.clinical_study_designation IN ['COTC007B'] 
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WHERE s.clinical_study_designation IN ['COTC007B']
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed , 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
 WHERE s.clinical_study_designation IN ['COTC007B']
-MATCH (c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+       coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+       order by c.case_id asc
+limit 100</t>
+  </si>
+  <si>
+    <t>TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC01_Canine_Filter_Study-COTB_WebData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -189,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -335,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,13 +522,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -516,55 +537,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
